--- a/SCH-STH/Baseline Mapping/Chad/td_sch_sth_baseline_2_child_202006.xlsx
+++ b/SCH-STH/Baseline Mapping/Chad/td_sch_sth_baseline_2_child_202006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Chad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF3D589-84D8-4AF3-A314-09AE24753F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C8E2C4-A3C2-4F88-9931-89EB5D39A5A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="189">
   <si>
     <t>form_title</t>
   </si>
@@ -143,9 +143,6 @@
     <t>yesNo</t>
   </si>
   <si>
-    <t>select_one yesNo</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>Scan barcode now</t>
   </si>
   <si>
-    <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered, including RDT and Dry Blood Spot tests</t>
-  </si>
-  <si>
     <t>Enter the age in years</t>
   </si>
   <si>
@@ -260,9 +254,6 @@
     <t>Scanner le barcode</t>
   </si>
   <si>
-    <t>Veuillez enregistrer le code d'identification unique suivant pour le répondant sur une liste séparée et sur chaque test de diagnostic administré, y compris les tests OV16 RDT et Dry Blood Spot</t>
-  </si>
-  <si>
     <t>Entrez l'âge en années</t>
   </si>
   <si>
@@ -515,36 +506,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>${p_consent} = 'Yes'</t>
-  </si>
-  <si>
-    <t>${p_idmethod} != 'Scanner' and ${p_consent} = 'Yes'</t>
-  </si>
-  <si>
-    <t>${p_idmethod} = 'Scanner' and ${p_consent} = 'Yes'</t>
-  </si>
-  <si>
-    <t>${p_urinate_place} = 'Other' and ${p_consent} = 'Yes'</t>
-  </si>
-  <si>
-    <t>${p_urinate_wash} = 'No' and ${p_consent} = 'Yes'</t>
-  </si>
-  <si>
-    <t>${p_defecate_place} = 'Other' and ${p_consent} = 'Yes'</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'Yes' and ${p_consent} = 'Yes'</t>
-  </si>
-  <si>
-    <t>${p_defecate_wash} = 'No' and ${p_consent} = 'Yes'</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'No'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ${p_consent} = 'Yes'</t>
-  </si>
-  <si>
     <t>. &gt;= 5 and . &lt;= 15</t>
   </si>
   <si>
@@ -560,13 +521,82 @@
     <t>L'enfant a-t-il donné son consentement et le consentement de ses parents ou tuteurs?</t>
   </si>
   <si>
-    <t>td_sch_sth_baseline_2_child_202006_v2</t>
-  </si>
-  <si>
-    <t>2. SCH/STH - Children V2</t>
-  </si>
-  <si>
     <t>p_health_area</t>
+  </si>
+  <si>
+    <t>p_consent_note</t>
+  </si>
+  <si>
+    <t>Hello! I am here on behalf of the Ministry of Health. We are conducting a survey to determine the presence of schistosomiasis (SCH) and soil transmitted helminthiasis (STH) in your school. I will ask you a few questions on the mode and mechanism of SCH/STH transmission and would equally appreciate to collect stool and urine samples from you. If you wish to participate in the survey, tell me and I will note your answer and provide you with stool and urine containers. If you agree, the survey will only take a few minutes. Taking part in the school survey will be beneficial to you directly because if diagnosed with worms, you will immediately receive deworming medicine. Your community and school will equally benefit directly because the results of this survey will help the Ministry of Health implement deworming activities for children aged 5-14 years, if laboratory results reveal the need for interventions.   You may refuse without penalty. Would you like to take part in our survey?</t>
+  </si>
+  <si>
+    <t>Bonjour ! Je suis ici au nom du ministère de la Santé. Nous menons une enquête pour déterminer la présence de schistosomiase (SCH) et des géo-helminthiases (STH) dans votre école. Je vais vous poser quelques questions sur le mode et le mécanisme de transmission et apprécierais également de prélever des échantillons de selles et d'urine auprès de vous. Si vous souhaitez participer à l'enquête, dites-le-moi et je noterai vos réponses et vous fournirai des récipients de selles et d'urine. Si vous êtes d'accord, l'enquête ne prendra que quelques minutes. Participer à l'enquête scolaire vous sera directement bénéfique car en cas de diagnostic de vers, vous recevrez immédiatement des médicaments vermifuges. Votre communauté et votre école en bénéficieront également directement, car les résultats de cette enquête aideront le ministère de la Santé à mettre en œuvre des activités de déparasitage pour les enfants âgés de 5 à 14 ans, si les résultats de laboratoire révèlent la nécessité d'interventions. Vous pouvez refuser sans pénalité. Souhaitez-vous participer à notre enquête ?</t>
+  </si>
+  <si>
+    <t>1. Given</t>
+  </si>
+  <si>
+    <t>2. Refused</t>
+  </si>
+  <si>
+    <t>1. A donné</t>
+  </si>
+  <si>
+    <t>2. A refusé</t>
+  </si>
+  <si>
+    <t>Given</t>
+  </si>
+  <si>
+    <t>Refused</t>
+  </si>
+  <si>
+    <t>consent_list</t>
+  </si>
+  <si>
+    <t>select_one consent_list</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'Given'</t>
+  </si>
+  <si>
+    <t>${p_idmethod} = 'Scanner' and ${p_consent} = 'Given'</t>
+  </si>
+  <si>
+    <t>${p_idmethod} != 'Scanner' and ${p_consent} = 'Given'</t>
+  </si>
+  <si>
+    <t>${p_urinate_place} = 'Other' and ${p_consent} = 'Given'</t>
+  </si>
+  <si>
+    <t>${p_urinate_wash} = 'No' and ${p_consent} = 'Given'</t>
+  </si>
+  <si>
+    <t>${p_defecate_place} = 'Other' and ${p_consent} = 'Given'</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'Given' and ${p_consent} = 'Given'</t>
+  </si>
+  <si>
+    <t>${p_defecate_wash} = 'No' and ${p_consent} = 'Given'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${p_consent} = 'Given'</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'Refused'</t>
+  </si>
+  <si>
+    <t>2. SCH/STH - Children V3</t>
+  </si>
+  <si>
+    <t>td_sch_sth_baseline_2_child_202006_v3</t>
+  </si>
+  <si>
+    <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered, including Kato Katz and Urine Filtration tests</t>
+  </si>
+  <si>
+    <t>Veuillez enregistrer le code d'identification unique suivant pour le répondant sur une liste séparée et sur chaque test de diagnostic administré, y compris les tests Kato Katz et de Filtration Urinaire</t>
   </si>
 </sst>
 </file>
@@ -648,7 +678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -671,13 +701,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -762,6 +803,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1051,13 +1095,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1126,96 +1170,88 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="11"/>
+      <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="9" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="14"/>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="9"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="14"/>
       <c r="M4" s="9" t="s">
         <v>33</v>
@@ -1225,27 +1261,29 @@
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>73</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
+      <c r="H5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="K5" s="9"/>
       <c r="L5" s="14"/>
       <c r="M5" s="9" t="s">
@@ -1256,54 +1294,56 @@
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="17"/>
+        <v>43</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="E6" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="9" t="s">
-        <v>161</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="14"/>
       <c r="M6" s="9" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="18"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="9" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="9" t="s">
@@ -1312,112 +1352,112 @@
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>62</v>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="L8" s="9"/>
+        <v>176</v>
+      </c>
+      <c r="L8" s="14"/>
       <c r="M8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>21</v>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="L9" s="16"/>
+        <v>187</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="L9" s="9"/>
       <c r="M9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>158</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F10" s="23"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="11"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="L10" s="16"/>
       <c r="M10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="11"/>
@@ -1425,7 +1465,7 @@
       <c r="I11" s="19"/>
       <c r="J11" s="20"/>
       <c r="K11" s="24" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="9" t="s">
@@ -1434,19 +1474,19 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="11"/>
@@ -1454,7 +1494,7 @@
       <c r="I12" s="19"/>
       <c r="J12" s="20"/>
       <c r="K12" s="24" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="9" t="s">
@@ -1463,19 +1503,19 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="11"/>
@@ -1483,7 +1523,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="20"/>
       <c r="K13" s="24" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="9" t="s">
@@ -1494,17 +1534,17 @@
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="11"/>
@@ -1512,7 +1552,7 @@
       <c r="I14" s="19"/>
       <c r="J14" s="20"/>
       <c r="K14" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="9" t="s">
@@ -1523,17 +1563,17 @@
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="11"/>
@@ -1541,7 +1581,7 @@
       <c r="I15" s="19"/>
       <c r="J15" s="20"/>
       <c r="K15" s="24" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="9" t="s">
@@ -1550,19 +1590,19 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="11"/>
@@ -1570,7 +1610,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
       <c r="K16" s="24" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="9" t="s">
@@ -1579,27 +1619,27 @@
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="23"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
-      <c r="K17" s="11" t="s">
-        <v>167</v>
+      <c r="K17" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="9" t="s">
@@ -1608,27 +1648,27 @@
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
-      <c r="K18" s="24" t="s">
-        <v>168</v>
+      <c r="K18" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="9" t="s">
@@ -1637,86 +1677,90 @@
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>151</v>
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D19" s="28"/>
       <c r="E19" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="L19" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" s="11"/>
       <c r="M19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="28"/>
+        <v>52</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>53</v>
+      </c>
       <c r="E20" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>82</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="7"/>
       <c r="J20" s="8"/>
       <c r="K20" s="11" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="M20" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="11"/>
+      <c r="K21" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -1724,16 +1768,18 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
+      <c r="E22" s="29" t="s">
+        <v>83</v>
+      </c>
       <c r="F22" s="8"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1746,14 +1792,14 @@
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>30</v>
+      <c r="A23" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="29"/>
@@ -1768,6 +1814,29 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
     </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1776,11 +1845,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1835,175 +1904,175 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
@@ -2017,142 +2086,170 @@
     </row>
     <row r="17" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2169,7 +2266,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2195,16 +2292,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C2">
-        <v>20200626</v>
+        <v>20200630</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
